--- a/rides.xlsx
+++ b/rides.xlsx
@@ -2,14 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="3552" yWindow="3276" windowWidth="17280" windowHeight="8964" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -49,7 +50,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -412,16 +413,13 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:F1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
-  <cols>
-    <col width="11" bestFit="1" customWidth="1" min="2" max="2"/>
-  </cols>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
@@ -431,7 +429,7 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>Phone</t>
+          <t>Whatsapp</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
@@ -446,168 +444,12 @@
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>Time</t>
-        </is>
-      </c>
-    </row>
-    <row r="2"/>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Abhineet Badyal</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>9315678007</v>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>RRU</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">AHMEDABAD </t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>5:00PM</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Surya Prakash Singh</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>9026107095</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>RRU</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>AHMEDABAD</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>5:00PM</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Abhineet Badyal</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 9315678007</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>RRU</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>AHMEDABAD</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>5:00PM</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Atharv</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>1234567890</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Lavaf</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>Dahegam</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>12:20</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Surya Prakash Singh</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>abcd123</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>RRU</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>AHMEDHBAD</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>13:50</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Surya Prakash Singh</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>abcd123</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>RRU</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>AHMEDHBAD</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>13:50</t>
+          <t>Timing</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>UserID</t>
         </is>
       </c>
     </row>
